--- a/Results.xlsx
+++ b/Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="262">
   <si>
     <t>Name of the movie</t>
   </si>
@@ -652,12 +652,12 @@
     <t xml:space="preserve">      Spotlight</t>
   </si>
   <si>
+    <t xml:space="preserve">      Logan</t>
+  </si>
+  <si>
     <t xml:space="preserve">      Amores perros</t>
   </si>
   <si>
-    <t xml:space="preserve">      Logan</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Rang De Basanti</t>
   </si>
   <si>
@@ -760,13 +760,61 @@
     <t xml:space="preserve">      PK</t>
   </si>
   <si>
+    <t xml:space="preserve">      Fanny och Alexander</t>
+  </si>
+  <si>
     <t xml:space="preserve">      8½</t>
   </si>
   <si>
-    <t xml:space="preserve">      Fanny och Alexander</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Guardians of the Galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    A
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+                        2h 22min
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Drama
+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+14 October 1994 (USA)
+ </t>
+  </si>
+  <si>
+    <t>&lt;div class="summary_text"&gt;
+                    Two imprisoned men bond over a number of years, finding solace and eventual redemption through acts of common decency.
+            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Frank Darabont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Writers:
+Stephen King (short story "Rita Hayworth and Shawshank Redemption")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Stars:
+Tim Robbins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morgan Freeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bob Gunton </t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A251"/>
+  <dimension ref="A1:R252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2304,59 +2352,100 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18">
+      <c r="F252" t="s">
+        <v>251</v>
+      </c>
+      <c r="G252" t="s">
+        <v>252</v>
+      </c>
+      <c r="H252" t="s">
+        <v>253</v>
+      </c>
+      <c r="I252" t="s">
+        <v>254</v>
+      </c>
+      <c r="J252" t="s">
+        <v>254</v>
+      </c>
+      <c r="K252" t="s">
+        <v>255</v>
+      </c>
+      <c r="L252" t="s">
+        <v>256</v>
+      </c>
+      <c r="M252" t="s">
+        <v>257</v>
+      </c>
+      <c r="N252" t="s">
+        <v>258</v>
+      </c>
+      <c r="O252" t="s">
+        <v>254</v>
+      </c>
+      <c r="P252" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>260</v>
+      </c>
+      <c r="R252" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
